--- a/makerclan/projects/ELRMD059046/ELRMD059046.xlsx
+++ b/makerclan/projects/ELRMD059046/ELRMD059046.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>project_id</t>
   </si>
@@ -34,28 +34,31 @@
     <t>last_date</t>
   </si>
   <si>
-    <t>ELRMD059043</t>
-  </si>
-  <si>
-    <t>Water ATM Sensor Detection</t>
-  </si>
-  <si>
-    <t>A sensor that can help maintain water level in water ATM. Whenever the water gets beneath a given level the sensor triggers the GSM shield and that will send a message to the given authority to refill the tank. The authority contact can be updated using a keypad attached with the sensor.</t>
-  </si>
-  <si>
-    <t>2000|4000</t>
-  </si>
-  <si>
-    <t>Arduino Microcontroller,GSM Shield,Connecting Wires,Keypad,Battery Unit in case of power cut</t>
-  </si>
-  <si>
     <t>skills</t>
   </si>
   <si>
-    <t>Arduino , GSM Shield</t>
-  </si>
-  <si>
-    <t>2017-12-15</t>
+    <t>ELRMD059046</t>
+  </si>
+  <si>
+    <t>Ship Intrusion System Using 3 axis Accelerometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detecting waves generated by a small boat model using 3 axis accelerometer connected to Arduino Uno. Sending the data detected to laptop by a wireless module. Comparing the data detected with a data already stored. In the ideal state the water will be having silent/uniform waveform.The device will record the waves from a particular distance.The motion of boat will have a particular range in order to generate waves in particular range.The data can be sent using Bluetooth/Wi-Fi either by Http post or any other feasible method. </t>
+  </si>
+  <si>
+    <t>Arduino Uno, ADXL345 (accelerometer), Esp8266 (Wi-Fi Module), Ultrasonic Sensor HC-SR04, 16*2 LCD display, Buzzer</t>
+  </si>
+  <si>
+    <t>Arduino , Web Designing</t>
+  </si>
+  <si>
+    <t>4400|6400</t>
+  </si>
+  <si>
+    <t>2018-01-06</t>
+  </si>
+  <si>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,9 +429,10 @@
     <col min="3" max="3" width="42.7109375" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,21 +452,24 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
@@ -471,7 +478,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/makerclan/projects/ELRMD059046/ELRMD059046.xlsx
+++ b/makerclan/projects/ELRMD059046/ELRMD059046.xlsx
@@ -55,10 +55,10 @@
     <t>4400|6400</t>
   </si>
   <si>
-    <t>2018-01-06</t>
-  </si>
-  <si>
     <t>flag</t>
+  </si>
+  <si>
+    <t>2018-01-23</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
@@ -475,13 +475,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
